--- a/public/Excel导入模板.xlsx
+++ b/public/Excel导入模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccjr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccjr/development/fs-project/oep-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A492F32-A66C-7749-8335-D70B49E8FC9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23B401-6450-444B-8AF0-7846A5BD319E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{AC9F47F7-3E9F-8446-9177-7403657D9458}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" xr2:uid="{AC9F47F7-3E9F-8446-9177-7403657D9458}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>错误答案1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,11 +47,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本单元格为标题，标题后第一行为正确答案，第二行为错误答案。所有选项加在一起最多5个，最少四个。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本单元格为标题，标题后第一行为正确答案，第二行为错误答案。所有选项加在一起最多5个，最少四个。标题不能重复。本程序是智能判断单选，多选</t>
+    <t>这是一道单选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一道多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目以三行为单位，总选项不能多于5个，超出5个自动忽略，根据正确答案个数判断多选单选，错误答案为空也需空置一行（本行不能删除）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +76,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -98,9 +111,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0D392E-1B70-DB40-94BA-FF3E5875620F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C28" sqref="A11:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -430,54 +446,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
